--- a/data/results/raw_model_comparison/DQN Untrained_testing.xlsx
+++ b/data/results/raw_model_comparison/DQN Untrained_testing.xlsx
@@ -12,23 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Final Value</t>
-  </si>
-  <si>
-    <t>Annualized Return</t>
-  </si>
-  <si>
-    <t>Sharpe Ratio</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:CX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
       </c>
       <c r="C1" s="1" t="n">
         <v>1</v>
@@ -417,119 +402,1205 @@
       <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Final Value</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1968509.893805495</v>
+        <v>2507868.173290499</v>
       </c>
       <c r="D2" t="n">
-        <v>2186650.006791205</v>
+        <v>1581581.746671875</v>
       </c>
       <c r="E2" t="n">
-        <v>1173133.494999147</v>
+        <v>1385556.279760664</v>
       </c>
       <c r="F2" t="n">
-        <v>1240033.931120541</v>
+        <v>1247286.793423745</v>
       </c>
       <c r="G2" t="n">
-        <v>2419965.595439862</v>
+        <v>1485882.296233765</v>
       </c>
       <c r="H2" t="n">
-        <v>3006864.420996025</v>
+        <v>1585951.872910604</v>
       </c>
       <c r="I2" t="n">
-        <v>1351115.289270779</v>
+        <v>3187559.26837116</v>
       </c>
       <c r="J2" t="n">
-        <v>2068751.045156827</v>
+        <v>959166.121620981</v>
       </c>
       <c r="K2" t="n">
-        <v>2554438.039431828</v>
+        <v>2024080.721668602</v>
       </c>
       <c r="L2" t="n">
-        <v>2052266.56151028</v>
+        <v>1457192.188656598</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2113612.904504913</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2324055.491645221</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2525237.740978486</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2399014.721506018</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3061790.212643621</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1793921.901582175</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1346388.305876814</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2239491.624751985</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1463566.136542903</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3046725.909182604</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1600988.027458684</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2172255.640898699</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1114711.638985445</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1742129.991960526</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1460854.395319686</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1423802.225145185</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1474828.963646063</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3648686.56567605</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1830832.695423659</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2407623.599198911</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1930595.619667858</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1523408.482695368</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1573936.92330732</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1365654.74540469</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1727603.464855693</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2634044.801789729</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1461021.804052761</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1183422.596563466</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1470291.62570745</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1749468.854572758</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1470181.086426477</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>955297.4446741235</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2277282.645080427</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1424756.71914536</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2029126.328297138</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1535692.936566398</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1393966.132967125</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1235593.271326399</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1955946.907697289</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1943953.443626235</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1691981.515388591</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1681424.064333216</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1457487.516986691</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1796390.758011648</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1339984.542252973</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1921941.148653304</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1614264.15018599</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1696249.520079216</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>985910.2045866564</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1491723.906167147</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1110314.924734307</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1988406.20309116</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1053979.739081323</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1011666.505972328</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>4377419.109421331</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1113934.723257028</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1345605.512075199</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2402257.87449336</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1106196.203556374</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1580216.539629682</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2121205.524404547</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1127741.251295146</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1624582.497854485</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>2150647.85435861</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1576139.974801902</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1932005.929659358</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1297538.208489947</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>3657288.076703005</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>2692241.09617622</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1294377.013668019</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1387491.217409432</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1475591.007764543</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>2468002.017352644</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>972776.5230814599</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1158021.962419661</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1195143.839476976</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>2524785.874365654</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1002158.489308227</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>2225906.343844277</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>3700116.861881307</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1195597.169093969</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1440494.85633145</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1804913.787899566</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>2327772.051189624</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>2428820.01516354</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1863280.067531659</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1856785.888634055</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>2058990.28949848</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>2147856.805387799</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1881906.037603309</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Annualized Return</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2085569512157017</v>
+        <v>0.2932462472880655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2446080494707781</v>
+        <v>0.1367992789635752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04567260647754301</v>
+        <v>0.09549589855951601</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0620191878234122</v>
+        <v>0.06375287694426879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2804048157086694</v>
+        <v>0.1171260713453424</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3605775338463491</v>
+        <v>0.137676946742727</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08781053295561381</v>
+        <v>0.3829671286130172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.225462971632163</v>
+        <v>-0.01159280212984082</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2999185191479681</v>
+        <v>0.2180037539829711</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2227239633911966</v>
+        <v>0.1110507534572955</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2328383050339156</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2660043598338584</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2957452164532879</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2772947126053718</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3674835035154373</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1775683258471101</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.08674475027839068</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2529479487266197</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1124078736833949</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.3655983681794404</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.1406834664412819</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2423110867931575</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.03083902975252228</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1679591046674977</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1118310199415948</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.1038707353470958</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.114795546534161</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.43622850942339</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1842952910281535</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2785750369073519</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2020008797262351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1249462449755405</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.1352597323552802</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.09107196749152147</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1652270262536173</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.3111240048834314</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1118666542054136</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.04822962790121021</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1138352347996494</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1693331269354179</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1138118129271013</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.01270943950872505</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2588258983065792</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1040776602098401</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2188521925711147</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.1274760654343097</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.09735158088922002</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.06095410601634388</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.2063947361418401</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.2043211877433446</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.1584566699658028</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.1564303996433578</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.1111137281744417</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.1780213684286986</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.08529660010523177</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.2004913830664463</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.1433212018515855</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.1592732347715529</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-0.003960924694409007</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.1183526971777649</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.02970022255380855</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.2119610575966271</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.01481280368005544</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.003249376811553795</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.5112691170313233</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.03063803393239706</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.08656799544112892</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.2777774267767668</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.02863046875574171</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.1365247415893427</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.2340753542913365</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.03419498089321826</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.1453605072753141</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.2388423811095268</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.1357039435464216</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.2022464012515597</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.07556952776476122</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.4371746792495095</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.3191623299997475</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.07483598272932146</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.09592357073630486</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.1149566217158904</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.2874631733894277</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>-0.007689954812281297</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.04188767816046912</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.05112312325305246</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.2956803632642033</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.0006032374855498013</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.2508174608238853</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.44186215019298</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.05123462044651927</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.1074752244071155</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.1795819317316092</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.2665702805319758</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.2817134023485623</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.19012858248866</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.1889669689914615</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.2238430630163442</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.2383925048784239</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.1934441123929196</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1.03199693149074</v>
+        <v>0.8347607395361296</v>
       </c>
       <c r="D4" t="n">
-        <v>1.150062394016171</v>
+        <v>0.599092797776856</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1189709391911508</v>
+        <v>0.2884251425131099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2113475420690246</v>
+        <v>0.2092866484333004</v>
       </c>
       <c r="G4" t="n">
-        <v>1.301624771720708</v>
+        <v>0.5300613508202294</v>
       </c>
       <c r="H4" t="n">
-        <v>1.802035191949954</v>
+        <v>0.5734995151700225</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2809684722498331</v>
+        <v>1.617004373314058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9292699251351019</v>
+        <v>-0.1656255605359731</v>
       </c>
       <c r="K4" t="n">
-        <v>1.398879983117243</v>
+        <v>0.881681392742041</v>
       </c>
       <c r="L4" t="n">
-        <v>0.863549329605777</v>
+        <v>0.3408255014882015</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.002588573503679</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.285888701173644</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.388194434390794</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.089834843162447</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.609671785649483</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6872218551557677</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3270348052163851</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.175396285799194</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.441926981467921</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.393365155145664</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.6923771036896069</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.024228082868745</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.05908589374237639</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8747383147759556</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.4763453047263795</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.4473330837090199</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.3245845716610591</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.465839227409062</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.8131487002786768</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.8999058976899148</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9337751098371885</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6014738401643189</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.6162722767199381</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.4037360969482283</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.8195959353612114</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.37740044413497</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5857974265999297</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1399882218050504</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.4553245403198219</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.6856972753541435</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.5440342054722825</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.1662138801570677</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.9974279782187437</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.3680766171771399</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.9575110467536597</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.6356403856966042</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.3738511838278843</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.179146130172797</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.9260734728960225</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.8156381352313944</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.7779593815288641</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.5320392479202408</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.5266656010782517</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.7483194594994964</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.3229523386596269</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.7313045097639783</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.4911689880954122</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.6815470103447249</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.1274871767866153</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.4885985076946223</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.03767611533829296</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.080027051171244</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-0.02358160792213967</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>-0.09346826796725476</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1.648643705226511</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.06276347889804057</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.3938641475465038</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1.321447251234915</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.03481527621604701</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.5969292063626243</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.8171089475854381</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.05890806242881402</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.6313282649663774</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1.06401245225956</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.4864767800189448</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1.010479703857842</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.2407689162733261</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1.730908164160477</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1.584453134493168</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.2463329141765694</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.2703816304637554</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.5120274172457349</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1.198132656206962</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>-0.1585785595944054</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.1054786256810624</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.1529131041020445</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1.348304152091709</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>-0.09948640001597062</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.9640378574328117</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1.850107969376256</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.1564900198540644</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.4522111474931894</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.9216449486252659</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1.216308833160992</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1.144578893920786</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.5575472688411865</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.8677122029809573</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1.030608665019554</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1.129055399514789</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.5309032470213444</v>
       </c>
     </row>
   </sheetData>
